--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc106_I1_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc106_I1_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2440" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -390,10 +402,10 @@
       <c r="I9">
         <f>((C9-C8)^2+(D9- D8)^2)^.5</f>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="2" t="s">
+      <c r="J9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L9" t="n">
@@ -437,28 +449,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="2">
+      <c r="A11" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B11" t="s" s="2">
+      <c r="B11" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s" s="2">
+      <c r="C11" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E11" t="s" s="2">
+      <c r="E11" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F11" t="s" s="2">
+      <c r="F11" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G11" t="s" s="2">
+      <c r="G11" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H11" t="s" s="2">
+      <c r="H11" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -483,28 +495,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" t="s" s="2">
+      <c r="B13" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C13" t="s" s="2">
+      <c r="C13" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D13" t="s" s="2">
+      <c r="D13" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E13" t="s" s="2">
+      <c r="E13" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F13" t="s" s="2">
+      <c r="F13" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G13" t="s" s="2">
+      <c r="G13" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H13" t="s" s="2">
+      <c r="H13" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I13" t="s" s="2">
+      <c r="I13" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -650,10 +662,10 @@
       <c r="I18">
         <f>((C18-C17)^2+(D18- D17)^2)^.5</f>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="2" t="s">
+      <c r="J18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L18" t="n">
@@ -697,28 +709,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="2">
+      <c r="A20" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B20" t="s" s="2">
+      <c r="B20" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C20" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s" s="2">
+      <c r="C20" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E20" t="s" s="2">
+      <c r="E20" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="F20" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G20" t="s" s="2">
+      <c r="G20" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H20" t="s" s="2">
+      <c r="H20" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -743,28 +755,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="B22" t="s" s="2">
+      <c r="B22" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C22" t="s" s="2">
+      <c r="C22" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D22" t="s" s="2">
+      <c r="D22" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E22" t="s" s="2">
+      <c r="E22" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F22" t="s" s="2">
+      <c r="F22" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G22" t="s" s="2">
+      <c r="G22" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H22" t="s" s="2">
+      <c r="H22" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I22" t="s" s="2">
+      <c r="I22" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -910,10 +922,10 @@
       <c r="I27">
         <f>((C27-C26)^2+(D27- D26)^2)^.5</f>
       </c>
-      <c r="J27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K27" s="2" t="s">
+      <c r="J27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L27" t="n">
@@ -957,28 +969,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="2">
+      <c r="A29" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B29" t="s" s="2">
+      <c r="B29" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C29" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D29" t="s" s="2">
+      <c r="C29" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E29" t="s" s="2">
+      <c r="E29" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="F29" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G29" t="s" s="2">
+      <c r="G29" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H29" t="s" s="2">
+      <c r="H29" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1003,28 +1015,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="B31" t="s" s="2">
+      <c r="B31" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C31" t="s" s="2">
+      <c r="C31" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D31" t="s" s="2">
+      <c r="D31" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E31" t="s" s="2">
+      <c r="E31" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="F31" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G31" t="s" s="2">
+      <c r="G31" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H31" t="s" s="2">
+      <c r="H31" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I31" t="s" s="2">
+      <c r="I31" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1170,10 +1182,10 @@
       <c r="I36">
         <f>((C36-C35)^2+(D36- D35)^2)^.5</f>
       </c>
-      <c r="J36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="2" t="s">
+      <c r="J36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L36" t="n">
@@ -1217,28 +1229,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="2">
+      <c r="A38" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C38" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s" s="2">
+      <c r="C38" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="G38" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H38" t="s" s="2">
+      <c r="H38" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1263,28 +1275,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="s" s="2">
+      <c r="B40" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C40" t="s" s="2">
+      <c r="C40" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D40" t="s" s="2">
+      <c r="D40" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E40" t="s" s="2">
+      <c r="E40" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="F40" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G40" t="s" s="2">
+      <c r="G40" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H40" t="s" s="2">
+      <c r="H40" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I40" t="s" s="2">
+      <c r="I40" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1401,10 +1413,10 @@
       <c r="I44">
         <f>((C44-C43)^2+(D44- D43)^2)^.5</f>
       </c>
-      <c r="J44" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K44" s="2" t="s">
+      <c r="J44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K44" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L44" t="n">
@@ -1448,28 +1460,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="2">
+      <c r="A46" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B46" t="s" s="2">
+      <c r="B46" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C46" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D46" t="s" s="2">
+      <c r="C46" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E46" t="s" s="2">
+      <c r="E46" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F46" t="s" s="2">
+      <c r="F46" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G46" t="s" s="2">
+      <c r="G46" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H46" t="s" s="2">
+      <c r="H46" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1494,28 +1506,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="B48" t="s" s="2">
+      <c r="B48" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C48" t="s" s="2">
+      <c r="C48" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D48" t="s" s="2">
+      <c r="D48" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E48" t="s" s="2">
+      <c r="E48" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="F48" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G48" t="s" s="2">
+      <c r="G48" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H48" t="s" s="2">
+      <c r="H48" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I48" t="s" s="2">
+      <c r="I48" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1632,10 +1644,10 @@
       <c r="I52">
         <f>((C52-C51)^2+(D52- D51)^2)^.5</f>
       </c>
-      <c r="J52" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K52" s="2" t="s">
+      <c r="J52" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K52" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L52" t="n">
@@ -1679,28 +1691,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s" s="2">
+      <c r="A54" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B54" t="s" s="2">
+      <c r="B54" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C54" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D54" t="s" s="2">
+      <c r="C54" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D54" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E54" t="s" s="2">
+      <c r="E54" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F54" t="s" s="2">
+      <c r="F54" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G54" t="s" s="2">
+      <c r="G54" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H54" t="s" s="2">
+      <c r="H54" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1725,28 +1737,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="B56" t="s" s="2">
+      <c r="B56" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C56" t="s" s="2">
+      <c r="C56" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D56" t="s" s="2">
+      <c r="D56" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E56" t="s" s="2">
+      <c r="E56" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F56" t="s" s="2">
+      <c r="F56" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G56" t="s" s="2">
+      <c r="G56" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H56" t="s" s="2">
+      <c r="H56" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I56" t="s" s="2">
+      <c r="I56" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1892,10 +1904,10 @@
       <c r="I61">
         <f>((C61-C60)^2+(D61- D60)^2)^.5</f>
       </c>
-      <c r="J61" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K61" s="2" t="s">
+      <c r="J61" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K61" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L61" t="n">
@@ -1939,28 +1951,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="s" s="2">
+      <c r="A63" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B63" t="s" s="2">
+      <c r="B63" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C63" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D63" t="s" s="2">
+      <c r="C63" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D63" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E63" t="s" s="2">
+      <c r="E63" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F63" t="s" s="2">
+      <c r="F63" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G63" t="s" s="2">
+      <c r="G63" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H63" t="s" s="2">
+      <c r="H63" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1985,28 +1997,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="B65" t="s" s="2">
+      <c r="B65" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C65" t="s" s="2">
+      <c r="C65" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D65" t="s" s="2">
+      <c r="D65" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E65" t="s" s="2">
+      <c r="E65" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F65" t="s" s="2">
+      <c r="F65" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G65" t="s" s="2">
+      <c r="G65" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H65" t="s" s="2">
+      <c r="H65" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I65" t="s" s="2">
+      <c r="I65" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2123,10 +2135,10 @@
       <c r="I69">
         <f>((C69-C68)^2+(D69- D68)^2)^.5</f>
       </c>
-      <c r="J69" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K69" s="2" t="s">
+      <c r="J69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K69" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L69" t="n">
@@ -2170,28 +2182,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="2">
+      <c r="A71" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C71" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D71" t="s" s="2">
+      <c r="C71" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2216,28 +2228,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="s" s="2">
+      <c r="B73" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C73" t="s" s="2">
+      <c r="C73" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D73" t="s" s="2">
+      <c r="D73" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E73" t="s" s="2">
+      <c r="E73" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F73" t="s" s="2">
+      <c r="F73" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G73" t="s" s="2">
+      <c r="G73" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H73" t="s" s="2">
+      <c r="H73" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I73" t="s" s="2">
+      <c r="I73" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2325,10 +2337,10 @@
       <c r="I76">
         <f>((C76-C75)^2+(D76- D75)^2)^.5</f>
       </c>
-      <c r="J76" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K76" s="2" t="s">
+      <c r="J76" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K76" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L76" t="n">
@@ -2372,28 +2384,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="s" s="2">
+      <c r="A78" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B78" t="s" s="2">
+      <c r="B78" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C78" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D78" t="s" s="2">
+      <c r="C78" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D78" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E78" t="s" s="2">
+      <c r="E78" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F78" t="s" s="2">
+      <c r="F78" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G78" t="s" s="2">
+      <c r="G78" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H78" t="s" s="2">
+      <c r="H78" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2418,28 +2430,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="B80" t="s" s="2">
+      <c r="B80" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C80" t="s" s="2">
+      <c r="C80" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D80" t="s" s="2">
+      <c r="D80" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E80" t="s" s="2">
+      <c r="E80" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F80" t="s" s="2">
+      <c r="F80" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G80" t="s" s="2">
+      <c r="G80" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H80" t="s" s="2">
+      <c r="H80" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I80" t="s" s="2">
+      <c r="I80" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2556,10 +2568,10 @@
       <c r="I84">
         <f>((C84-C83)^2+(D84- D83)^2)^.5</f>
       </c>
-      <c r="J84" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K84" s="2" t="s">
+      <c r="J84" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K84" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L84" t="n">
@@ -2603,28 +2615,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="s" s="2">
+      <c r="A86" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B86" t="s" s="2">
+      <c r="B86" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C86" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D86" t="s" s="2">
+      <c r="C86" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D86" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E86" t="s" s="2">
+      <c r="E86" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F86" t="s" s="2">
+      <c r="F86" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G86" t="s" s="2">
+      <c r="G86" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H86" t="s" s="2">
+      <c r="H86" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2649,28 +2661,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="B88" t="s" s="2">
+      <c r="B88" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C88" t="s" s="2">
+      <c r="C88" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D88" t="s" s="2">
+      <c r="D88" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E88" t="s" s="2">
+      <c r="E88" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F88" t="s" s="2">
+      <c r="F88" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G88" t="s" s="2">
+      <c r="G88" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H88" t="s" s="2">
+      <c r="H88" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I88" t="s" s="2">
+      <c r="I88" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2758,10 +2770,10 @@
       <c r="I91">
         <f>((C91-C90)^2+(D91- D90)^2)^.5</f>
       </c>
-      <c r="J91" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K91" s="2" t="s">
+      <c r="J91" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K91" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L91" t="n">
@@ -2805,28 +2817,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="s" s="2">
+      <c r="A93" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B93" t="s" s="2">
+      <c r="B93" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C93" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D93" t="s" s="2">
+      <c r="C93" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D93" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E93" t="s" s="2">
+      <c r="E93" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F93" t="s" s="2">
+      <c r="F93" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G93" t="s" s="2">
+      <c r="G93" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H93" t="s" s="2">
+      <c r="H93" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2851,28 +2863,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="B95" t="s" s="2">
+      <c r="B95" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C95" t="s" s="2">
+      <c r="C95" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D95" t="s" s="2">
+      <c r="D95" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E95" t="s" s="2">
+      <c r="E95" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F95" t="s" s="2">
+      <c r="F95" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G95" t="s" s="2">
+      <c r="G95" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H95" t="s" s="2">
+      <c r="H95" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I95" t="s" s="2">
+      <c r="I95" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3047,10 +3059,10 @@
       <c r="I101">
         <f>((C101-C100)^2+(D101- D100)^2)^.5</f>
       </c>
-      <c r="J101" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K101" s="2" t="s">
+      <c r="J101" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K101" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L101" t="n">
@@ -3094,28 +3106,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="s" s="2">
+      <c r="A103" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B103" t="s" s="2">
+      <c r="B103" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C103" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D103" t="s" s="2">
+      <c r="C103" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D103" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E103" t="s" s="2">
+      <c r="E103" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F103" t="s" s="2">
+      <c r="F103" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G103" t="s" s="2">
+      <c r="G103" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H103" t="s" s="2">
+      <c r="H103" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3140,28 +3152,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="B105" t="s" s="2">
+      <c r="B105" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C105" t="s" s="2">
+      <c r="C105" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D105" t="s" s="2">
+      <c r="D105" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E105" t="s" s="2">
+      <c r="E105" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F105" t="s" s="2">
+      <c r="F105" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G105" t="s" s="2">
+      <c r="G105" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H105" t="s" s="2">
+      <c r="H105" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I105" t="s" s="2">
+      <c r="I105" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3307,10 +3319,10 @@
       <c r="I110">
         <f>((C110-C109)^2+(D110- D109)^2)^.5</f>
       </c>
-      <c r="J110" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K110" s="2" t="s">
+      <c r="J110" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K110" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L110" t="n">
@@ -3354,28 +3366,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="s" s="2">
+      <c r="A112" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B112" t="s" s="2">
+      <c r="B112" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C112" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D112" t="s" s="2">
+      <c r="C112" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D112" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E112" t="s" s="2">
+      <c r="E112" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F112" t="s" s="2">
+      <c r="F112" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G112" t="s" s="2">
+      <c r="G112" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H112" t="s" s="2">
+      <c r="H112" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3400,28 +3412,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="B114" t="s" s="2">
+      <c r="B114" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C114" t="s" s="2">
+      <c r="C114" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D114" t="s" s="2">
+      <c r="D114" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E114" t="s" s="2">
+      <c r="E114" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F114" t="s" s="2">
+      <c r="F114" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G114" t="s" s="2">
+      <c r="G114" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H114" t="s" s="2">
+      <c r="H114" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I114" t="s" s="2">
+      <c r="I114" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3538,10 +3550,10 @@
       <c r="I118">
         <f>((C118-C117)^2+(D118- D117)^2)^.5</f>
       </c>
-      <c r="J118" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K118" s="2" t="s">
+      <c r="J118" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K118" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L118" t="n">
@@ -3585,28 +3597,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="s" s="2">
+      <c r="A120" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B120" t="s" s="2">
+      <c r="B120" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C120" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D120" t="s" s="2">
+      <c r="C120" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D120" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E120" t="s" s="2">
+      <c r="E120" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F120" t="s" s="2">
+      <c r="F120" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G120" t="s" s="2">
+      <c r="G120" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H120" t="s" s="2">
+      <c r="H120" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3631,28 +3643,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="B122" t="s" s="2">
+      <c r="B122" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C122" t="s" s="2">
+      <c r="C122" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D122" t="s" s="2">
+      <c r="D122" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E122" t="s" s="2">
+      <c r="E122" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F122" t="s" s="2">
+      <c r="F122" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G122" t="s" s="2">
+      <c r="G122" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H122" t="s" s="2">
+      <c r="H122" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I122" t="s" s="2">
+      <c r="I122" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3740,10 +3752,10 @@
       <c r="I125">
         <f>((C125-C124)^2+(D125- D124)^2)^.5</f>
       </c>
-      <c r="J125" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K125" s="2" t="s">
+      <c r="J125" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K125" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L125" t="n">
@@ -3787,28 +3799,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="s" s="2">
+      <c r="A127" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B127" t="s" s="2">
+      <c r="B127" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C127" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D127" t="s" s="2">
+      <c r="C127" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D127" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E127" t="s" s="2">
+      <c r="E127" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F127" t="s" s="2">
+      <c r="F127" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G127" t="s" s="2">
+      <c r="G127" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H127" t="s" s="2">
+      <c r="H127" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3833,28 +3845,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="B129" t="s" s="2">
+      <c r="B129" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C129" t="s" s="2">
+      <c r="C129" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D129" t="s" s="2">
+      <c r="D129" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E129" t="s" s="2">
+      <c r="E129" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G129" t="s" s="2">
+      <c r="G129" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H129" t="s" s="2">
+      <c r="H129" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I129" t="s" s="2">
+      <c r="I129" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3971,10 +3983,10 @@
       <c r="I133">
         <f>((C133-C132)^2+(D133- D132)^2)^.5</f>
       </c>
-      <c r="J133" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K133" s="2" t="s">
+      <c r="J133" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K133" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L133" t="n">
@@ -4018,28 +4030,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s" s="2">
+      <c r="A135" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C135" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D135" t="s" s="2">
+      <c r="C135" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D135" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4064,28 +4076,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C137" t="s" s="2">
+      <c r="C137" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D137" t="s" s="2">
+      <c r="D137" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I137" t="s" s="2">
+      <c r="I137" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4231,10 +4243,10 @@
       <c r="I142">
         <f>((C142-C141)^2+(D142- D141)^2)^.5</f>
       </c>
-      <c r="J142" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K142" s="2" t="s">
+      <c r="J142" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K142" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L142" t="n">
@@ -4278,28 +4290,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="s" s="2">
+      <c r="A144" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C144" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D144" t="s" s="2">
+      <c r="C144" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D144" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4324,28 +4336,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="B146" t="s" s="2">
+      <c r="B146" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C146" t="s" s="2">
+      <c r="C146" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D146" t="s" s="2">
+      <c r="D146" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E146" t="s" s="2">
+      <c r="E146" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F146" t="s" s="2">
+      <c r="F146" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G146" t="s" s="2">
+      <c r="G146" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H146" t="s" s="2">
+      <c r="H146" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I146" t="s" s="2">
+      <c r="I146" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4433,10 +4445,10 @@
       <c r="I149">
         <f>((C149-C148)^2+(D149- D148)^2)^.5</f>
       </c>
-      <c r="J149" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K149" s="2" t="s">
+      <c r="J149" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K149" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L149" t="n">
@@ -4480,28 +4492,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="s" s="2">
+      <c r="A151" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B151" t="s" s="2">
+      <c r="B151" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C151" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D151" t="s" s="2">
+      <c r="C151" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D151" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E151" t="s" s="2">
+      <c r="E151" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F151" t="s" s="2">
+      <c r="F151" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G151" t="s" s="2">
+      <c r="G151" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H151" t="s" s="2">
+      <c r="H151" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4526,28 +4538,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="B153" t="s" s="2">
+      <c r="B153" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C153" t="s" s="2">
+      <c r="C153" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D153" t="s" s="2">
+      <c r="D153" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E153" t="s" s="2">
+      <c r="E153" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F153" t="s" s="2">
+      <c r="F153" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G153" t="s" s="2">
+      <c r="G153" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H153" t="s" s="2">
+      <c r="H153" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I153" t="s" s="2">
+      <c r="I153" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4635,10 +4647,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K156" s="2" t="s">
+      <c r="J156" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K156" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
@@ -4682,28 +4694,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s" s="2">
+      <c r="A158" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B158" t="s" s="2">
+      <c r="B158" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C158" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D158" t="s" s="2">
+      <c r="C158" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D158" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E158" t="s" s="2">
+      <c r="E158" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G158" t="s" s="2">
+      <c r="G158" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H158" t="s" s="2">
+      <c r="H158" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4728,28 +4740,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="B160" t="s" s="2">
+      <c r="B160" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C160" t="s" s="2">
+      <c r="C160" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D160" t="s" s="2">
+      <c r="D160" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E160" t="s" s="2">
+      <c r="E160" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F160" t="s" s="2">
+      <c r="F160" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G160" t="s" s="2">
+      <c r="G160" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H160" t="s" s="2">
+      <c r="H160" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I160" t="s" s="2">
+      <c r="I160" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4866,10 +4878,10 @@
       <c r="I164">
         <f>((C164-C163)^2+(D164- D163)^2)^.5</f>
       </c>
-      <c r="J164" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K164" s="2" t="s">
+      <c r="J164" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K164" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L164" t="n">
@@ -4913,28 +4925,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="s" s="2">
+      <c r="A166" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C166" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D166" t="s" s="2">
+      <c r="C166" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D166" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4959,28 +4971,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="B168" t="s" s="2">
+      <c r="B168" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C168" t="s" s="2">
+      <c r="C168" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D168" t="s" s="2">
+      <c r="D168" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E168" t="s" s="2">
+      <c r="E168" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F168" t="s" s="2">
+      <c r="F168" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G168" t="s" s="2">
+      <c r="G168" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H168" t="s" s="2">
+      <c r="H168" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I168" t="s" s="2">
+      <c r="I168" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5097,10 +5109,10 @@
       <c r="I172">
         <f>((C172-C171)^2+(D172- D171)^2)^.5</f>
       </c>
-      <c r="J172" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K172" s="2" t="s">
+      <c r="J172" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K172" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L172" t="n">
@@ -5144,28 +5156,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="s" s="2">
+      <c r="A174" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B174" t="s" s="2">
+      <c r="B174" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C174" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D174" t="s" s="2">
+      <c r="C174" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D174" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E174" t="s" s="2">
+      <c r="E174" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F174" t="s" s="2">
+      <c r="F174" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G174" t="s" s="2">
+      <c r="G174" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H174" t="s" s="2">
+      <c r="H174" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5190,28 +5202,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="B176" t="s" s="2">
+      <c r="B176" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C176" t="s" s="2">
+      <c r="C176" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D176" t="s" s="2">
+      <c r="D176" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E176" t="s" s="2">
+      <c r="E176" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F176" t="s" s="2">
+      <c r="F176" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G176" t="s" s="2">
+      <c r="G176" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H176" t="s" s="2">
+      <c r="H176" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I176" t="s" s="2">
+      <c r="I176" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5386,10 +5398,10 @@
       <c r="I182">
         <f>((C182-C181)^2+(D182- D181)^2)^.5</f>
       </c>
-      <c r="J182" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K182" s="2" t="s">
+      <c r="J182" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K182" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L182" t="n">
@@ -5433,28 +5445,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="s" s="2">
+      <c r="A184" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B184" t="s" s="2">
+      <c r="B184" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C184" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D184" t="s" s="2">
+      <c r="C184" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D184" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E184" t="s" s="2">
+      <c r="E184" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F184" t="s" s="2">
+      <c r="F184" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G184" t="s" s="2">
+      <c r="G184" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H184" t="s" s="2">
+      <c r="H184" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5479,28 +5491,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="B186" t="s" s="2">
+      <c r="B186" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C186" t="s" s="2">
+      <c r="C186" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D186" t="s" s="2">
+      <c r="D186" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E186" t="s" s="2">
+      <c r="E186" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F186" t="s" s="2">
+      <c r="F186" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G186" t="s" s="2">
+      <c r="G186" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H186" t="s" s="2">
+      <c r="H186" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I186" t="s" s="2">
+      <c r="I186" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5588,10 +5600,10 @@
       <c r="I189">
         <f>((C189-C188)^2+(D189- D188)^2)^.5</f>
       </c>
-      <c r="J189" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K189" s="2" t="s">
+      <c r="J189" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K189" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L189" t="n">
@@ -5635,28 +5647,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="s" s="2">
+      <c r="A191" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B191" t="s" s="2">
+      <c r="B191" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C191" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D191" t="s" s="2">
+      <c r="C191" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D191" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E191" t="s" s="2">
+      <c r="E191" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F191" t="s" s="2">
+      <c r="F191" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G191" t="s" s="2">
+      <c r="G191" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H191" t="s" s="2">
+      <c r="H191" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5681,28 +5693,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="B193" t="s" s="2">
+      <c r="B193" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C193" t="s" s="2">
+      <c r="C193" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D193" t="s" s="2">
+      <c r="D193" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E193" t="s" s="2">
+      <c r="E193" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F193" t="s" s="2">
+      <c r="F193" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G193" t="s" s="2">
+      <c r="G193" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H193" t="s" s="2">
+      <c r="H193" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I193" t="s" s="2">
+      <c r="I193" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5906,10 +5918,10 @@
       <c r="I200">
         <f>((C200-C199)^2+(D200- D199)^2)^.5</f>
       </c>
-      <c r="J200" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K200" s="2" t="s">
+      <c r="J200" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K200" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L200" t="n">
@@ -5953,28 +5965,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="s" s="2">
+      <c r="A202" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B202" t="s" s="2">
+      <c r="B202" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C202" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D202" t="s" s="2">
+      <c r="C202" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D202" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E202" t="s" s="2">
+      <c r="E202" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F202" t="s" s="2">
+      <c r="F202" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G202" t="s" s="2">
+      <c r="G202" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H202" t="s" s="2">
+      <c r="H202" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5999,28 +6011,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="B204" t="s" s="2">
+      <c r="B204" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C204" t="s" s="2">
+      <c r="C204" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D204" t="s" s="2">
+      <c r="D204" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E204" t="s" s="2">
+      <c r="E204" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F204" t="s" s="2">
+      <c r="F204" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G204" t="s" s="2">
+      <c r="G204" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H204" t="s" s="2">
+      <c r="H204" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I204" t="s" s="2">
+      <c r="I204" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6166,10 +6178,10 @@
       <c r="I209">
         <f>((C209-C208)^2+(D209- D208)^2)^.5</f>
       </c>
-      <c r="J209" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K209" s="2" t="s">
+      <c r="J209" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K209" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L209" t="n">
@@ -6213,28 +6225,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="s" s="2">
+      <c r="A211" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B211" t="s" s="2">
+      <c r="B211" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C211" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D211" t="s" s="2">
+      <c r="C211" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D211" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E211" t="s" s="2">
+      <c r="E211" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F211" t="s" s="2">
+      <c r="F211" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G211" t="s" s="2">
+      <c r="G211" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H211" t="s" s="2">
+      <c r="H211" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6259,28 +6271,28 @@
       </c>
     </row>
     <row r="213">
-      <c r="B213" t="s" s="2">
+      <c r="B213" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C213" t="s" s="2">
+      <c r="C213" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D213" t="s" s="2">
+      <c r="D213" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E213" t="s" s="2">
+      <c r="E213" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F213" t="s" s="2">
+      <c r="F213" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G213" t="s" s="2">
+      <c r="G213" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H213" t="s" s="2">
+      <c r="H213" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I213" t="s" s="2">
+      <c r="I213" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6397,10 +6409,10 @@
       <c r="I217">
         <f>((C217-C216)^2+(D217- D216)^2)^.5</f>
       </c>
-      <c r="J217" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K217" s="2" t="s">
+      <c r="J217" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K217" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L217" t="n">
@@ -6444,28 +6456,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="s" s="2">
+      <c r="A219" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B219" t="s" s="2">
+      <c r="B219" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C219" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D219" t="s" s="2">
+      <c r="C219" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D219" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E219" t="s" s="2">
+      <c r="E219" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F219" t="s" s="2">
+      <c r="F219" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G219" t="s" s="2">
+      <c r="G219" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H219" t="s" s="2">
+      <c r="H219" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6490,28 +6502,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="B221" t="s" s="2">
+      <c r="B221" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C221" t="s" s="2">
+      <c r="C221" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D221" t="s" s="2">
+      <c r="D221" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E221" t="s" s="2">
+      <c r="E221" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F221" t="s" s="2">
+      <c r="F221" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G221" t="s" s="2">
+      <c r="G221" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H221" t="s" s="2">
+      <c r="H221" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I221" t="s" s="2">
+      <c r="I221" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6628,10 +6640,10 @@
       <c r="I225">
         <f>((C225-C224)^2+(D225- D224)^2)^.5</f>
       </c>
-      <c r="J225" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K225" s="2" t="s">
+      <c r="J225" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K225" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L225" t="n">
@@ -6675,28 +6687,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="s" s="2">
+      <c r="A227" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B227" t="s" s="2">
+      <c r="B227" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C227" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D227" t="s" s="2">
+      <c r="C227" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D227" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E227" t="s" s="2">
+      <c r="E227" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F227" t="s" s="2">
+      <c r="F227" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G227" t="s" s="2">
+      <c r="G227" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H227" t="s" s="2">
+      <c r="H227" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6721,28 +6733,28 @@
       </c>
     </row>
     <row r="229">
-      <c r="B229" t="s" s="2">
+      <c r="B229" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C229" t="s" s="2">
+      <c r="C229" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D229" t="s" s="2">
+      <c r="D229" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E229" t="s" s="2">
+      <c r="E229" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F229" t="s" s="2">
+      <c r="F229" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G229" t="s" s="2">
+      <c r="G229" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H229" t="s" s="2">
+      <c r="H229" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I229" t="s" s="2">
+      <c r="I229" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6801,10 +6813,10 @@
       <c r="I231">
         <f>((C231-C230)^2+(D231- D230)^2)^.5</f>
       </c>
-      <c r="J231" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K231" s="2" t="s">
+      <c r="J231" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K231" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L231" t="n">
@@ -6848,28 +6860,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="s" s="2">
+      <c r="A233" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B233" t="s" s="2">
+      <c r="B233" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C233" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D233" t="s" s="2">
+      <c r="C233" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D233" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E233" t="s" s="2">
+      <c r="E233" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F233" t="s" s="2">
+      <c r="F233" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G233" t="s" s="2">
+      <c r="G233" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H233" t="s" s="2">
+      <c r="H233" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6894,28 +6906,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="B235" t="s" s="2">
+      <c r="B235" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C235" t="s" s="2">
+      <c r="C235" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D235" t="s" s="2">
+      <c r="D235" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E235" t="s" s="2">
+      <c r="E235" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F235" t="s" s="2">
+      <c r="F235" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G235" t="s" s="2">
+      <c r="G235" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H235" t="s" s="2">
+      <c r="H235" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I235" t="s" s="2">
+      <c r="I235" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7032,10 +7044,10 @@
       <c r="I239">
         <f>((C239-C238)^2+(D239- D238)^2)^.5</f>
       </c>
-      <c r="J239" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K239" s="2" t="s">
+      <c r="J239" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K239" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L239" t="n">
@@ -7079,28 +7091,28 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="s" s="2">
+      <c r="A241" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B241" t="s" s="2">
+      <c r="B241" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C241" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D241" t="s" s="2">
+      <c r="C241" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D241" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E241" t="s" s="2">
+      <c r="E241" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F241" t="s" s="2">
+      <c r="F241" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G241" t="s" s="2">
+      <c r="G241" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H241" t="s" s="2">
+      <c r="H241" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7125,28 +7137,28 @@
       </c>
     </row>
     <row r="243">
-      <c r="B243" t="s" s="2">
+      <c r="B243" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C243" t="s" s="2">
+      <c r="C243" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D243" t="s" s="2">
+      <c r="D243" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E243" t="s" s="2">
+      <c r="E243" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F243" t="s" s="2">
+      <c r="F243" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G243" t="s" s="2">
+      <c r="G243" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H243" t="s" s="2">
+      <c r="H243" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I243" t="s" s="2">
+      <c r="I243" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7263,10 +7275,10 @@
       <c r="I247">
         <f>((C247-C246)^2+(D247- D246)^2)^.5</f>
       </c>
-      <c r="J247" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K247" s="2" t="s">
+      <c r="J247" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K247" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L247" t="n">
@@ -7310,28 +7322,28 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="s" s="2">
+      <c r="A249" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B249" t="s" s="2">
+      <c r="B249" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C249" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D249" t="s" s="2">
+      <c r="C249" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D249" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E249" t="s" s="2">
+      <c r="E249" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F249" t="s" s="2">
+      <c r="F249" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G249" t="s" s="2">
+      <c r="G249" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H249" t="s" s="2">
+      <c r="H249" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7356,28 +7368,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="B251" t="s" s="2">
+      <c r="B251" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C251" t="s" s="2">
+      <c r="C251" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D251" t="s" s="2">
+      <c r="D251" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E251" t="s" s="2">
+      <c r="E251" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F251" t="s" s="2">
+      <c r="F251" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G251" t="s" s="2">
+      <c r="G251" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H251" t="s" s="2">
+      <c r="H251" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I251" t="s" s="2">
+      <c r="I251" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7436,10 +7448,10 @@
       <c r="I253">
         <f>((C253-C252)^2+(D253- D252)^2)^.5</f>
       </c>
-      <c r="J253" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K253" s="2" t="s">
+      <c r="J253" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K253" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L253" t="n">
@@ -7483,28 +7495,28 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="s" s="2">
+      <c r="A255" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B255" t="s" s="2">
+      <c r="B255" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C255" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D255" t="s" s="2">
+      <c r="C255" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D255" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E255" t="s" s="2">
+      <c r="E255" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F255" t="s" s="2">
+      <c r="F255" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G255" t="s" s="2">
+      <c r="G255" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H255" t="s" s="2">
+      <c r="H255" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7529,28 +7541,28 @@
       </c>
     </row>
     <row r="257">
-      <c r="B257" t="s" s="2">
+      <c r="B257" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C257" t="s" s="2">
+      <c r="C257" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D257" t="s" s="2">
+      <c r="D257" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E257" t="s" s="2">
+      <c r="E257" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F257" t="s" s="2">
+      <c r="F257" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G257" t="s" s="2">
+      <c r="G257" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H257" t="s" s="2">
+      <c r="H257" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I257" t="s" s="2">
+      <c r="I257" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7638,10 +7650,10 @@
       <c r="I260">
         <f>((C260-C259)^2+(D260- D259)^2)^.5</f>
       </c>
-      <c r="J260" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K260" s="2" t="s">
+      <c r="J260" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K260" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L260" t="n">
@@ -7685,28 +7697,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="s" s="2">
+      <c r="A262" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B262" t="s" s="2">
+      <c r="B262" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C262" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D262" t="s" s="2">
+      <c r="C262" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D262" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E262" t="s" s="2">
+      <c r="E262" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F262" t="s" s="2">
+      <c r="F262" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G262" t="s" s="2">
+      <c r="G262" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H262" t="s" s="2">
+      <c r="H262" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7731,28 +7743,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="B264" t="s" s="2">
+      <c r="B264" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C264" t="s" s="2">
+      <c r="C264" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D264" t="s" s="2">
+      <c r="D264" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E264" t="s" s="2">
+      <c r="E264" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F264" t="s" s="2">
+      <c r="F264" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G264" t="s" s="2">
+      <c r="G264" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H264" t="s" s="2">
+      <c r="H264" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I264" t="s" s="2">
+      <c r="I264" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7811,10 +7823,10 @@
       <c r="I266">
         <f>((C266-C265)^2+(D266- D265)^2)^.5</f>
       </c>
-      <c r="J266" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K266" s="2" t="s">
+      <c r="J266" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K266" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L266" t="n">
